--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Battery.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Battery.xlsx
@@ -64,14 +64,6 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\RE_2.2\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
     <t>Battery visible</t>
   </si>
   <si>
@@ -278,6 +270,14 @@
 {
 validate_Screenshot=VT187_0804
 };</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\RE_2.2\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -822,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -843,16 +845,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -870,16 +872,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -897,16 +899,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -924,16 +926,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -951,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -978,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1005,16 +1007,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
